--- a/wares-blade/checklist.xlsx
+++ b/wares-blade/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/wares-blade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6843E9-85CB-754F-BC20-4ACE891E13E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A485E9-AB7D-FB46-9F96-66B80B713740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{0307F73B-A75B-994D-8C2B-E536C742BE64}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
   <si>
     <t>year</t>
   </si>
@@ -198,6 +198,18 @@
   </si>
   <si>
     <t>holy_encyclopedia.jpg</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>box set</t>
+  </si>
+  <si>
+    <t>supplement</t>
+  </si>
+  <si>
+    <t>rulebook</t>
   </si>
 </sst>
 </file>
@@ -558,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92D70A1-9D46-4B47-B73B-418F2A84040E}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -572,7 +584,7 @@
     <col min="5" max="5" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,8 +600,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1988</v>
       </c>
@@ -605,8 +620,11 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -619,8 +637,11 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -633,8 +654,11 @@
       <c r="E4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -647,8 +671,11 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -661,8 +688,11 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -675,8 +705,11 @@
       <c r="E7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -689,8 +722,11 @@
       <c r="E8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>26</v>
       </c>
@@ -703,8 +739,11 @@
       <c r="E9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1993</v>
       </c>
@@ -720,8 +759,11 @@
       <c r="E10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1994</v>
       </c>
@@ -737,8 +779,11 @@
       <c r="E11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1990</v>
       </c>
@@ -754,8 +799,11 @@
       <c r="E12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>38</v>
       </c>
@@ -768,8 +816,11 @@
       <c r="E13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>41</v>
       </c>
@@ -782,8 +833,11 @@
       <c r="E14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1994</v>
       </c>
@@ -799,8 +853,11 @@
       <c r="E15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1991</v>
       </c>
@@ -816,8 +873,11 @@
       <c r="E16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1996</v>
       </c>
@@ -832,6 +892,9 @@
       </c>
       <c r="E17" t="s">
         <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/wares-blade/checklist.xlsx
+++ b/wares-blade/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/wares-blade/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/japanese-collectors-list/wares-blade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A485E9-AB7D-FB46-9F96-66B80B713740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B25F12-5677-EA4F-B8A3-44CB488867EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{0307F73B-A75B-994D-8C2B-E536C742BE64}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="16360" xr2:uid="{0307F73B-A75B-994D-8C2B-E536C742BE64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,74 +625,89 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1989</v>
+      </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1989</v>
+      </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1990</v>
+      </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1990</v>
+      </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1990</v>
+      </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -710,131 +725,140 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1990</v>
+      </c>
       <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1991</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
         <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1993</v>
-      </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
         <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1992</v>
+      </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
         <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1993</v>
+      </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -842,36 +866,36 @@
         <v>1994</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
         <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1991</v>
+        <v>1994</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
         <v>58</v>
@@ -898,6 +922,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F17">
+    <sortCondition ref="A2:A17"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>